--- a/warhammer/checklist.xlsx
+++ b/warhammer/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/warhammer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F6A4B2-7BA8-A149-9555-6D270D2BB5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90A8211B-706A-A04D-8DB2-6957FA1AED15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{D44B438A-1ED9-5B46-9704-A476985F2697}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{D44B438A-1ED9-5B46-9704-A476985F2697}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>year</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>warhammer_replay_1.jpg</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>rulebook</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>supplement</t>
+  </si>
+  <si>
+    <t>replay</t>
   </si>
 </sst>
 </file>
@@ -498,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FF5ABF-21AC-F646-BC84-FDE309C9EA6E}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -509,10 +524,10 @@
     <col min="2" max="2" width="88.33203125" customWidth="1"/>
     <col min="3" max="3" width="79.6640625" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="30.1640625" customWidth="1"/>
+    <col min="5" max="5" width="43.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,8 +543,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1991</v>
       </c>
@@ -545,8 +563,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1991</v>
       </c>
@@ -562,8 +583,11 @@
       <c r="E3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1991</v>
       </c>
@@ -579,8 +603,11 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1992</v>
       </c>
@@ -596,8 +623,11 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1992</v>
       </c>
@@ -613,8 +643,11 @@
       <c r="E6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -627,8 +660,11 @@
       <c r="E7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>24</v>
       </c>
@@ -641,8 +677,11 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1993</v>
       </c>
@@ -658,8 +697,11 @@
       <c r="E9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1993</v>
       </c>
@@ -674,6 +716,9 @@
       </c>
       <c r="E10" t="s">
         <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
